--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1678.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1678.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.892299010280559</v>
+        <v>1.73810887336731</v>
       </c>
       <c r="B1">
-        <v>2.7428329433287</v>
+        <v>3.701992750167847</v>
       </c>
       <c r="C1">
-        <v>2.110621167191156</v>
+        <v>2.27217435836792</v>
       </c>
       <c r="D1">
-        <v>1.987482187362236</v>
+        <v>1.595670700073242</v>
       </c>
       <c r="E1">
-        <v>1.781547020761074</v>
+        <v>1.358129739761353</v>
       </c>
     </row>
   </sheetData>
